--- a/Triplestores.xlsx
+++ b/Triplestores.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\imagem\200250818 - Triplestore selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A3B74-8FF9-43B6-AB5F-7AFF22376A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="13629" yWindow="0" windowWidth="13885" windowHeight="8297" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,216 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martijn van der Blom</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{9E8A5707-2DC7-4889-BC20-5B04C70ED004}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martijn van der Blom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only available with enterprise license</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{1EAB3E9E-4EA4-46A6-8C6A-F691E300CA44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martijn van der Blom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Online only
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{5402AEE9-03F4-4A0C-8CDF-AC3705053CAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martijn van der Blom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Te low level. Alleen docker container. Alle andere interactie via http sparql protocol.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+  <si>
+    <t>OntoText</t>
+  </si>
+  <si>
+    <t>Sparql</t>
+  </si>
+  <si>
+    <t>RDF</t>
+  </si>
+  <si>
+    <t>Inferencing</t>
+  </si>
+  <si>
+    <t>Node SDK</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Active Dev</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Stardog</t>
+  </si>
+  <si>
+    <t>Neo4j</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Docker container?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hub.docker.com/r/franzinc/agraph/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hub.docker.com/r/stardog/stardog </t>
+  </si>
+  <si>
+    <t>Free for enterprise in cloud, pay for support and local hosting</t>
+  </si>
+  <si>
+    <t>https://docs.stardog.com</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Allegrograph</t>
+  </si>
+  <si>
+    <t>QuadStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.npmjs.com/package/quadstore  </t>
+  </si>
+  <si>
+    <t>LevelDB backed</t>
+  </si>
+  <si>
+    <t>Triplydb</t>
+  </si>
+  <si>
+    <t>https://triplydb.com/osm/osm/sparql</t>
+  </si>
+  <si>
+    <t>Apache Jena Fuseki</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,13 +253,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +541,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="78.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{DDF5AEB5-3465-4DBC-9070-6ED2A5DFD847}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{32354B1C-84CF-47AD-AEFB-82ED1EFC8079}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{6D1EAB17-5B63-41C3-80BA-7EECBC0521D3}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{F226EB4E-7541-4306-A5B9-03A3835BDD34}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Triplestores.xlsx
+++ b/Triplestores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\imagem\200250818 - Triplestore selection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\imagem\triplestore-selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A3B74-8FF9-43B6-AB5F-7AFF22376A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A9A8E-1AFA-45BA-97D2-7C2C5B25E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13629" yWindow="0" windowWidth="13885" windowHeight="8297" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Martijn van der Blom</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{9E8A5707-2DC7-4889-BC20-5B04C70ED004}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{9E8A5707-2DC7-4889-BC20-5B04C70ED004}">
       <text>
         <r>
           <rPr>
@@ -79,59 +79,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{5402AEE9-03F4-4A0C-8CDF-AC3705053CAE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martijn van der Blom:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Te low level. Alleen docker container. Alle andere interactie via http sparql protocol.
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>OntoText</t>
   </si>
   <si>
-    <t>Sparql</t>
-  </si>
-  <si>
-    <t>RDF</t>
-  </si>
-  <si>
     <t>Inferencing</t>
   </si>
   <si>
-    <t>Node SDK</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
-    <t>Active Dev</t>
-  </si>
-  <si>
     <t>Url</t>
   </si>
   <si>
@@ -141,9 +104,6 @@
     <t>Neo4j</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -159,15 +119,9 @@
     <t xml:space="preserve">https://hub.docker.com/r/stardog/stardog </t>
   </si>
   <si>
-    <t>Free for enterprise in cloud, pay for support and local hosting</t>
-  </si>
-  <si>
     <t>https://docs.stardog.com</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Allegrograph</t>
   </si>
   <si>
@@ -187,13 +141,31 @@
   </si>
   <si>
     <t>Apache Jena Fuseki</t>
+  </si>
+  <si>
+    <t>Virtuoso</t>
+  </si>
+  <si>
+    <t>Only commercially licensed</t>
+  </si>
+  <si>
+    <t>Open source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build your own https://repo1.maven.org/maven2/org/apache/jena/jena-fuseki-docker/5.5.0/ </t>
+  </si>
+  <si>
+    <t>https://virtuoso.openlinksw.com/pricing/</t>
+  </si>
+  <si>
+    <t>https://jena.apache.org/documentation/fuseki2/index.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,19 +194,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,10 +216,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,159 +500,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="78.140625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{DDF5AEB5-3465-4DBC-9070-6ED2A5DFD847}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{32354B1C-84CF-47AD-AEFB-82ED1EFC8079}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{6D1EAB17-5B63-41C3-80BA-7EECBC0521D3}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{F226EB4E-7541-4306-A5B9-03A3835BDD34}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{DDF5AEB5-3465-4DBC-9070-6ED2A5DFD847}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{32354B1C-84CF-47AD-AEFB-82ED1EFC8079}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{6D1EAB17-5B63-41C3-80BA-7EECBC0521D3}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{F226EB4E-7541-4306-A5B9-03A3835BDD34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId5"/>
